--- a/resources/suggestion_prediction/sentences.xlsx
+++ b/resources/suggestion_prediction/sentences.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naji.ahammed\Desktop\Suggestion_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naji.ahammed\Desktop\New folder\ChatBot-using-API\resources\suggestion_prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F8AD60-3A90-4B99-8E27-3AD951428CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75970AA4-B87B-4E96-BD20-77C1D311789C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Hello there!</t>
   </si>
@@ -178,9 +178,6 @@
     <t xml:space="preserve">I've realized you need assistance in filing a complaint. Filing a complaint can vary depending on the nature of the claim and the policies in place. </t>
   </si>
   <si>
-    <t>Thank you for reaching out! I understand your need for a free number to talk to our customer assistance team.</t>
-  </si>
-  <si>
     <t>I can sense that you're seeking assistance with canceling your purchase with the purchase number .</t>
   </si>
   <si>
@@ -203,6 +200,18 @@
   </si>
   <si>
     <t>Unquestionably! If you need to correct your shipping address, we can assist you with that. Please provide us with the correct address details, and we will update it for you.</t>
+  </si>
+  <si>
+    <t>You're welcome! If you need any more help, feel free to ask.</t>
+  </si>
+  <si>
+    <t>No problem at all! Happy to assist.</t>
+  </si>
+  <si>
+    <t>Glad I could help! Let me know if there's anything else you need.</t>
+  </si>
+  <si>
+    <t>Anytime! Don't hesitate to reach out if you have further questions.</t>
   </si>
 </sst>
 </file>
@@ -575,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A715"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD28"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,12 +855,12 @@
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
@@ -860,17 +869,17 @@
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>54</v>
+      <c r="A56" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="A58" t="s">
         <v>57</v>
       </c>
     </row>
@@ -887,6 +896,21 @@
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
